--- a/addons/tv/tv.xlsx
+++ b/addons/tv/tv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\Simple-Web-Server-Windows-1.2.15-x64\workfolder\addons\tv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\GitHubDesktopPortable-Kaddons\Data\kaddons.github.io\addons\tv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA393E5-6215-4E9C-AEFF-8882D3CD4095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE431E1-5307-44E6-AFDF-0222F70C1299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{42650763-0125-4CBD-B687-4938702E81BA}"/>
   </bookViews>
@@ -173,9 +173,6 @@
     <t>tivimate-5.2.0.apk</t>
   </si>
   <si>
-    <t>tvbro-2.0.1.arm7.apk</t>
-  </si>
-  <si>
     <t>tvquickact-3.5.5.apk</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>projectivy-4.68.apk</t>
+  </si>
+  <si>
+    <t>tvbro-1.8.6.apk</t>
   </si>
 </sst>
 </file>
@@ -1091,10 +1091,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="str">
-        <f>"files/" &amp; A2</f>
+        <f t="shared" ref="B2:B49" si="0">"files/" &amp; A2</f>
         <v>files/projectivy-4.68.apk</v>
       </c>
       <c r="C2" s="1">
@@ -1109,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="str">
-        <f>"files/" &amp; A3</f>
+        <f t="shared" si="0"/>
         <v>files/InfoHW-5.23.0.apk</v>
       </c>
       <c r="C3" s="1">
@@ -1124,7 +1124,7 @@
         <v>41</v>
       </c>
       <c r="B4" t="str">
-        <f>"files/" &amp; A4</f>
+        <f t="shared" si="0"/>
         <v>files/smart-29.37-arm7.apk</v>
       </c>
       <c r="C4" s="1">
@@ -1139,7 +1139,7 @@
         <v>44</v>
       </c>
       <c r="B5" t="str">
-        <f>"files/" &amp; A5</f>
+        <f t="shared" si="0"/>
         <v>files/tivimate-5.2.0.apk</v>
       </c>
       <c r="C5" s="1">
@@ -1151,10 +1151,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="str">
-        <f>"files/" &amp; A6</f>
+        <f t="shared" si="0"/>
         <v>files/vlc-3.6.3-arm7.apk</v>
       </c>
       <c r="C6" s="1">
@@ -1166,10 +1166,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="str">
-        <f>"files/" &amp; A7</f>
+        <f t="shared" si="0"/>
         <v>files/rustdesk-1.4.1-arm7.apk</v>
       </c>
       <c r="C7" s="1">
@@ -1181,10 +1181,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="str">
-        <f>"files/" &amp; A8</f>
+        <f t="shared" si="0"/>
         <v>files/ott-1.7.3.2.apk</v>
       </c>
       <c r="C8" s="1">
@@ -1196,10 +1196,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="str">
-        <f>"files/" &amp; A9</f>
+        <f t="shared" si="0"/>
         <v>files/psivpn-4.1.0.apk</v>
       </c>
       <c r="C9" s="1">
@@ -1211,10 +1211,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="str">
-        <f>"files/" &amp; A10</f>
+        <f t="shared" si="0"/>
         <v>files/screentimeout-1.4.3.apk</v>
       </c>
       <c r="C10" s="1">
@@ -1229,7 +1229,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="str">
-        <f>"files/" &amp; A11</f>
+        <f t="shared" si="0"/>
         <v>files/fmanager-3.6.3.apk</v>
       </c>
       <c r="C11" s="1">
@@ -1244,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="str">
-        <f>"files/" &amp; A12</f>
+        <f t="shared" si="0"/>
         <v>files/hdotv-2.1.3-arm7.apk</v>
       </c>
       <c r="C12" s="1">
@@ -1259,7 +1259,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="str">
-        <f>"files/" &amp; A13</f>
+        <f t="shared" si="0"/>
         <v>files/hdotvp-1.0.9-arm7.apk</v>
       </c>
       <c r="C13" s="1">
@@ -1271,11 +1271,11 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B14" t="str">
-        <f>"files/" &amp; A14</f>
-        <v>files/tvbro-2.0.1.arm7.apk</v>
+        <f t="shared" si="0"/>
+        <v>files/tvbro-1.8.6.apk</v>
       </c>
       <c r="C14" s="1">
         <v>45871</v>
@@ -1289,7 +1289,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="str">
-        <f>"files/" &amp; A15</f>
+        <f t="shared" si="0"/>
         <v>files/backgroundapp-1.3G23i.apk</v>
       </c>
       <c r="C15" s="1">
@@ -1304,7 +1304,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="str">
-        <f>"files/" &amp; A16</f>
+        <f t="shared" si="0"/>
         <v>files/flixv-3.1.2.apk</v>
       </c>
       <c r="C16" s="1">
@@ -1319,7 +1319,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="str">
-        <f>"files/" &amp; A17</f>
+        <f t="shared" si="0"/>
         <v>files/browser-2.4.3.apk</v>
       </c>
       <c r="C17" s="1">
@@ -1334,7 +1334,7 @@
         <v>42</v>
       </c>
       <c r="B18" t="str">
-        <f>"files/" &amp; A18</f>
+        <f t="shared" si="0"/>
         <v>files/sparkletv-2.1.3.apk</v>
       </c>
       <c r="C18" s="1">
@@ -1349,7 +1349,7 @@
         <v>38</v>
       </c>
       <c r="B19" t="str">
-        <f>"files/" &amp; A19</f>
+        <f t="shared" si="0"/>
         <v>files/ontv-1.1.0.apk</v>
       </c>
       <c r="C19" s="1">
@@ -1361,10 +1361,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="str">
-        <f>"files/" &amp; A20</f>
+        <f t="shared" si="0"/>
         <v>files/tvquickact-3.5.5.apk</v>
       </c>
       <c r="C20" s="1">
@@ -1379,7 +1379,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="str">
-        <f>"files/" &amp; A21</f>
+        <f t="shared" si="0"/>
         <v>files/keyboard-6.1.31.apk</v>
       </c>
       <c r="C21" s="1">
@@ -1394,7 +1394,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="str">
-        <f>"files/" &amp; A22</f>
+        <f t="shared" si="0"/>
         <v>files/cast-5.1.3-arm7.apk</v>
       </c>
       <c r="C22" s="1">
@@ -1409,7 +1409,7 @@
         <v>37</v>
       </c>
       <c r="B23" t="str">
-        <f>"files/" &amp; A23</f>
+        <f t="shared" si="0"/>
         <v>files/onenavbar-2.0.8.apk</v>
       </c>
       <c r="C23" s="1">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="str">
-        <f>"files/" &amp; A24</f>
+        <f t="shared" si="0"/>
         <v>files/kodi-21.2-arm7.apk</v>
       </c>
       <c r="C24" s="1">
@@ -1439,7 +1439,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="str">
-        <f>"files/" &amp; A25</f>
+        <f t="shared" si="0"/>
         <v>files/downfire-1.5.1.apk</v>
       </c>
       <c r="C25" s="1">
@@ -1454,7 +1454,7 @@
         <v>17</v>
       </c>
       <c r="B26" t="str">
-        <f>"files/" &amp; A26</f>
+        <f t="shared" si="0"/>
         <v>files/downand-1.5.1.apk</v>
       </c>
       <c r="C26" s="1">
@@ -1469,7 +1469,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="str">
-        <f>"files/" &amp; A27</f>
+        <f t="shared" si="0"/>
         <v>files/button-3.35.apk</v>
       </c>
       <c r="C27" s="1">
@@ -1481,10 +1481,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="str">
-        <f>"files/" &amp; A28</f>
+        <f t="shared" si="0"/>
         <v>files/daydream-1.0.0.apk</v>
       </c>
       <c r="C28" s="1">
@@ -1499,7 +1499,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="str">
-        <f>"files/" &amp; A29</f>
+        <f t="shared" si="0"/>
         <v>files/accessibility-1.8.apk</v>
       </c>
       <c r="C29" s="1">
@@ -1514,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="B30" t="str">
-        <f>"files/" &amp; A30</f>
+        <f t="shared" si="0"/>
         <v>files/adblang-0.80.apk</v>
       </c>
       <c r="C30" s="1">
@@ -1529,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="str">
-        <f>"files/" &amp; A31</f>
+        <f t="shared" si="0"/>
         <v>files/adguard-3.6.54-arm7.apk</v>
       </c>
       <c r="C31" s="1">
@@ -1544,7 +1544,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="str">
-        <f>"files/" &amp; A32</f>
+        <f t="shared" si="0"/>
         <v>files/as-4.0.apk</v>
       </c>
       <c r="C32" s="1">
@@ -1559,7 +1559,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="str">
-        <f>"files/" &amp; A33</f>
+        <f t="shared" si="0"/>
         <v>files/blok-5.23.2.1.apk</v>
       </c>
       <c r="C33" s="1">
@@ -1574,7 +1574,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="str">
-        <f>"files/" &amp; A34</f>
+        <f t="shared" si="0"/>
         <v>files/clock-1.3.4.apk</v>
       </c>
       <c r="C34" s="1">
@@ -1589,7 +1589,7 @@
         <v>19</v>
       </c>
       <c r="B35" t="str">
-        <f>"files/" &amp; A35</f>
+        <f t="shared" si="0"/>
         <v>files/es-3.2.5.5.apk</v>
       </c>
       <c r="C35" s="1">
@@ -1604,7 +1604,7 @@
         <v>26</v>
       </c>
       <c r="B36" t="str">
-        <f>"files/" &amp; A36</f>
+        <f t="shared" si="0"/>
         <v>files/launchmand-1.0.4.apk</v>
       </c>
       <c r="C36" s="1">
@@ -1619,7 +1619,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="str">
-        <f>"files/" &amp; A37</f>
+        <f t="shared" si="0"/>
         <v>files/launchmfire-1.1.5.apk</v>
       </c>
       <c r="C37" s="1">
@@ -1634,7 +1634,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="str">
-        <f>"files/" &amp; A38</f>
+        <f t="shared" si="0"/>
         <v>files/launchmfire-1.1.7.apk</v>
       </c>
       <c r="C38" s="1">
@@ -1649,7 +1649,7 @@
         <v>29</v>
       </c>
       <c r="B39" t="str">
-        <f>"files/" &amp; A39</f>
+        <f t="shared" si="0"/>
         <v>files/launchmfire-1.1.8.apk</v>
       </c>
       <c r="C39" s="1">
@@ -1664,7 +1664,7 @@
         <v>30</v>
       </c>
       <c r="B40" t="str">
-        <f>"files/" &amp; A40</f>
+        <f t="shared" si="0"/>
         <v>files/launchmini-1.0.0.apk</v>
       </c>
       <c r="C40" s="1">
@@ -1679,7 +1679,7 @@
         <v>31</v>
       </c>
       <c r="B41" t="str">
-        <f>"files/" &amp; A41</f>
+        <f t="shared" si="0"/>
         <v>files/launchmult-1.0.8.apk</v>
       </c>
       <c r="C41" s="1">
@@ -1694,7 +1694,7 @@
         <v>33</v>
       </c>
       <c r="B42" t="str">
-        <f>"files/" &amp; A42</f>
+        <f t="shared" si="0"/>
         <v>files/mouse-1.0.6.apk</v>
       </c>
       <c r="C42" s="1">
@@ -1709,7 +1709,7 @@
         <v>34</v>
       </c>
       <c r="B43" t="str">
-        <f>"files/" &amp; A43</f>
+        <f t="shared" si="0"/>
         <v>files/mouse-1.0.8.apk</v>
       </c>
       <c r="C43" s="1">
@@ -1724,7 +1724,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="str">
-        <f>"files/" &amp; A44</f>
+        <f t="shared" si="0"/>
         <v>files/mouse-1.1.1.apk</v>
       </c>
       <c r="C44" s="1">
@@ -1739,7 +1739,7 @@
         <v>36</v>
       </c>
       <c r="B45" t="str">
-        <f>"files/" &amp; A45</f>
+        <f t="shared" si="0"/>
         <v>files/mouse-and-1.0.1.2.apk</v>
       </c>
       <c r="C45" s="1">
@@ -1754,7 +1754,7 @@
         <v>39</v>
       </c>
       <c r="B46" t="str">
-        <f>"files/" &amp; A46</f>
+        <f t="shared" si="0"/>
         <v>files/orient-1.1.4.apk</v>
       </c>
       <c r="C46" s="1">
@@ -1769,7 +1769,7 @@
         <v>40</v>
       </c>
       <c r="B47" t="str">
-        <f>"files/" &amp; A47</f>
+        <f t="shared" si="0"/>
         <v>files/permission-1.0.3.apk</v>
       </c>
       <c r="C47" s="1">
@@ -1784,7 +1784,7 @@
         <v>43</v>
       </c>
       <c r="B48" t="str">
-        <f>"files/" &amp; A48</f>
+        <f t="shared" si="0"/>
         <v>files/speed-1.21.11.10.apk</v>
       </c>
       <c r="C48" s="1">
@@ -1796,10 +1796,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="str">
-        <f>"files/" &amp; A49</f>
+        <f t="shared" si="0"/>
         <v>files/wolf-0.1.9.apk</v>
       </c>
       <c r="C49" s="1">

--- a/addons/tv/tv.xlsx
+++ b/addons/tv/tv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\GitHubDesktopPortable-Kaddons\Data\kaddons.github.io\addons\tv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE431E1-5307-44E6-AFDF-0222F70C1299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE67AE82-55DC-42AE-B29E-522248FFF858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{42650763-0125-4CBD-B687-4938702E81BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -146,9 +146,6 @@
     <t>mouse-1.1.1.apk</t>
   </si>
   <si>
-    <t>mouse-and-1.0.1.2.apk</t>
-  </si>
-  <si>
     <t>onenavbar-2.0.8.apk</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>speed-1.21.11.10.apk</t>
   </si>
   <si>
-    <t>tivimate-5.2.0.apk</t>
-  </si>
-  <si>
     <t>tvquickact-3.5.5.apk</t>
   </si>
   <si>
@@ -201,6 +195,18 @@
   </si>
   <si>
     <t>tvbro-1.8.6.apk</t>
+  </si>
+  <si>
+    <t>mouse-and-1.0.6.apk</t>
+  </si>
+  <si>
+    <t>shizuku-13.6.0.apk</t>
+  </si>
+  <si>
+    <t>tivi-5.2.0.apk</t>
+  </si>
+  <si>
+    <t>tivi-5.1.0.apk</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A25EF-1B7A-4619-AB7A-FD7FFA861628}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1091,14 +1097,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B49" si="0">"files/" &amp; A2</f>
-        <v>files/projectivy-4.68.apk</v>
+        <f t="shared" ref="B2:B34" si="0">"files/" &amp; A2</f>
+        <v>files/shizuku-13.6.0.apk</v>
       </c>
       <c r="C2" s="1">
-        <v>45905</v>
+        <v>45917</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1106,56 +1112,56 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>files/InfoHW-5.23.0.apk</v>
+        <v>files/mouse-and-1.0.6.apk</v>
       </c>
       <c r="C3" s="1">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>files/smart-29.37-arm7.apk</v>
+        <v>files/projectivy-4.68.apk</v>
       </c>
       <c r="C4" s="1">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>files/tivimate-5.2.0.apk</v>
+        <v>files/InfoHW-5.23.0.apk</v>
       </c>
       <c r="C5" s="1">
         <v>45904</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>files/vlc-3.6.3-arm7.apk</v>
+        <v>files/smart-29.37-arm7.apk</v>
       </c>
       <c r="C6" s="1">
         <v>45904</v>
@@ -1166,26 +1172,26 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>files/rustdesk-1.4.1-arm7.apk</v>
+        <v>files/tivi-5.2.0.apk</v>
       </c>
       <c r="C7" s="1">
         <v>45904</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>files/ott-1.7.3.2.apk</v>
+        <v>files/tivi-5.1.0.apk</v>
       </c>
       <c r="C8" s="1">
         <v>45904</v>
@@ -1196,11 +1202,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>files/psivpn-4.1.0.apk</v>
+        <v>files/vlc-3.6.3-arm7.apk</v>
       </c>
       <c r="C9" s="1">
         <v>45904</v>
@@ -1211,11 +1217,11 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>files/screentimeout-1.4.3.apk</v>
+        <v>files/rustdesk-1.4.1-arm7.apk</v>
       </c>
       <c r="C10" s="1">
         <v>45904</v>
@@ -1226,14 +1232,14 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>files/fmanager-3.6.3.apk</v>
+        <v>files/ott-1.7.3.2.apk</v>
       </c>
       <c r="C11" s="1">
-        <v>45890</v>
+        <v>45904</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -1241,14 +1247,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>files/hdotv-2.1.3-arm7.apk</v>
+        <v>files/psivpn-4.1.0.apk</v>
       </c>
       <c r="C12" s="1">
-        <v>45886</v>
+        <v>45904</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -1256,29 +1262,29 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>files/hdotvp-1.0.9-arm7.apk</v>
+        <v>files/screentimeout-1.4.3.apk</v>
       </c>
       <c r="C13" s="1">
-        <v>45886</v>
+        <v>45904</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>files/tvbro-1.8.6.apk</v>
+        <v>files/fmanager-3.6.3.apk</v>
       </c>
       <c r="C14" s="1">
-        <v>45871</v>
+        <v>45890</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -1286,14 +1292,14 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>files/backgroundapp-1.3G23i.apk</v>
+        <v>files/hdotv-2.1.3-arm7.apk</v>
       </c>
       <c r="C15" s="1">
-        <v>45870</v>
+        <v>45886</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -1301,14 +1307,14 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>files/flixv-3.1.2.apk</v>
+        <v>files/hdotvp-1.0.9-arm7.apk</v>
       </c>
       <c r="C16" s="1">
-        <v>45862</v>
+        <v>45886</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -1316,44 +1322,44 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>files/browser-2.4.3.apk</v>
+        <v>files/tvbro-1.8.6.apk</v>
       </c>
       <c r="C17" s="1">
-        <v>45855</v>
+        <v>45871</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>files/sparkletv-2.1.3.apk</v>
+        <v>files/backgroundapp-1.3G23i.apk</v>
       </c>
       <c r="C18" s="1">
-        <v>45832</v>
+        <v>45870</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>files/ontv-1.1.0.apk</v>
+        <v>files/flixv-3.1.2.apk</v>
       </c>
       <c r="C19" s="1">
-        <v>45817</v>
+        <v>45862</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -1361,14 +1367,14 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>files/tvquickact-3.5.5.apk</v>
+        <v>files/browser-2.4.3.apk</v>
       </c>
       <c r="C20" s="1">
-        <v>45782</v>
+        <v>45855</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -1376,29 +1382,29 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>files/keyboard-6.1.31.apk</v>
+        <v>files/sparkletv-2.1.3.apk</v>
       </c>
       <c r="C21" s="1">
-        <v>45769</v>
+        <v>45832</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>files/cast-5.1.3-arm7.apk</v>
+        <v>files/ontv-1.1.0.apk</v>
       </c>
       <c r="C22" s="1">
-        <v>45718</v>
+        <v>45817</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -1406,14 +1412,14 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>files/onenavbar-2.0.8.apk</v>
+        <v>files/tvquickact-3.5.5.apk</v>
       </c>
       <c r="C23" s="1">
-        <v>45710</v>
+        <v>45782</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -1421,14 +1427,14 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>files/kodi-21.2-arm7.apk</v>
+        <v>files/keyboard-6.1.31.apk</v>
       </c>
       <c r="C24" s="1">
-        <v>45675</v>
+        <v>45769</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -1436,14 +1442,14 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>files/downfire-1.5.1.apk</v>
+        <v>files/cast-5.1.3-arm7.apk</v>
       </c>
       <c r="C25" s="1">
-        <v>45654</v>
+        <v>45718</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -1451,29 +1457,29 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>files/downand-1.5.1.apk</v>
+        <v>files/onenavbar-2.0.8.apk</v>
       </c>
       <c r="C26" s="1">
-        <v>45612</v>
+        <v>45710</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>files/button-3.35.apk</v>
+        <v>files/kodi-21.2-arm7.apk</v>
       </c>
       <c r="C27" s="1">
-        <v>45597</v>
+        <v>45675</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -1481,71 +1487,71 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>files/daydream-1.0.0.apk</v>
+        <v>files/downfire-1.5.1.apk</v>
       </c>
       <c r="C28" s="1">
-        <v>45580</v>
+        <v>45654</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>files/accessibility-1.8.apk</v>
+        <v>files/downand-1.5.1.apk</v>
       </c>
       <c r="C29" s="1">
-        <v>43665</v>
+        <v>45612</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>files/adblang-0.80.apk</v>
+        <v>files/button-3.35.apk</v>
       </c>
       <c r="C30" s="1">
-        <v>43665</v>
+        <v>45597</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>files/adguard-3.6.54-arm7.apk</v>
+        <v>files/daydream-1.0.0.apk</v>
       </c>
       <c r="C31" s="1">
-        <v>43665</v>
+        <v>45580</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>files/as-4.0.apk</v>
+        <v>files/accessibility-1.8.apk</v>
       </c>
       <c r="C32" s="1">
         <v>43665</v>
@@ -1556,11 +1562,11 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>files/blok-5.23.2.1.apk</v>
+        <v>files/adblang-0.80.apk</v>
       </c>
       <c r="C33" s="1">
         <v>43665</v>
@@ -1571,11 +1577,11 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>files/clock-1.3.4.apk</v>
+        <v>files/adguard-3.6.54-arm7.apk</v>
       </c>
       <c r="C34" s="1">
         <v>43665</v>
@@ -1586,11 +1592,11 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>files/es-3.2.5.5.apk</v>
+        <f t="shared" ref="B35:B66" si="1">"files/" &amp; A35</f>
+        <v>files/as-4.0.apk</v>
       </c>
       <c r="C35" s="1">
         <v>43665</v>
@@ -1601,11 +1607,11 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>files/launchmand-1.0.4.apk</v>
+        <f t="shared" si="1"/>
+        <v>files/blok-5.23.2.1.apk</v>
       </c>
       <c r="C36" s="1">
         <v>43665</v>
@@ -1616,11 +1622,11 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>files/launchmfire-1.1.5.apk</v>
+        <f t="shared" si="1"/>
+        <v>files/clock-1.3.4.apk</v>
       </c>
       <c r="C37" s="1">
         <v>43665</v>
@@ -1631,11 +1637,11 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>files/launchmfire-1.1.7.apk</v>
+        <f t="shared" si="1"/>
+        <v>files/es-3.2.5.5.apk</v>
       </c>
       <c r="C38" s="1">
         <v>43665</v>
@@ -1646,11 +1652,11 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>files/launchmfire-1.1.8.apk</v>
+        <f t="shared" si="1"/>
+        <v>files/launchmand-1.0.4.apk</v>
       </c>
       <c r="C39" s="1">
         <v>43665</v>
@@ -1661,11 +1667,11 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>files/launchmini-1.0.0.apk</v>
+        <f t="shared" si="1"/>
+        <v>files/launchmfire-1.1.5.apk</v>
       </c>
       <c r="C40" s="1">
         <v>43665</v>
@@ -1676,11 +1682,11 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>files/launchmult-1.0.8.apk</v>
+        <f t="shared" si="1"/>
+        <v>files/launchmfire-1.1.7.apk</v>
       </c>
       <c r="C41" s="1">
         <v>43665</v>
@@ -1691,11 +1697,11 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>files/mouse-1.0.6.apk</v>
+        <f t="shared" si="1"/>
+        <v>files/launchmfire-1.1.8.apk</v>
       </c>
       <c r="C42" s="1">
         <v>43665</v>
@@ -1706,11 +1712,11 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>files/mouse-1.0.8.apk</v>
+        <f t="shared" si="1"/>
+        <v>files/launchmini-1.0.0.apk</v>
       </c>
       <c r="C43" s="1">
         <v>43665</v>
@@ -1721,11 +1727,11 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>files/mouse-1.1.1.apk</v>
+        <f t="shared" si="1"/>
+        <v>files/launchmult-1.0.8.apk</v>
       </c>
       <c r="C44" s="1">
         <v>43665</v>
@@ -1736,11 +1742,11 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>files/mouse-and-1.0.1.2.apk</v>
+        <f t="shared" si="1"/>
+        <v>files/mouse-1.0.6.apk</v>
       </c>
       <c r="C45" s="1">
         <v>43665</v>
@@ -1751,11 +1757,11 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>files/orient-1.1.4.apk</v>
+        <f t="shared" si="1"/>
+        <v>files/mouse-1.0.8.apk</v>
       </c>
       <c r="C46" s="1">
         <v>43665</v>
@@ -1766,11 +1772,11 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>files/permission-1.0.3.apk</v>
+        <f t="shared" si="1"/>
+        <v>files/mouse-1.1.1.apk</v>
       </c>
       <c r="C47" s="1">
         <v>43665</v>
@@ -1781,11 +1787,11 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>files/speed-1.21.11.10.apk</v>
+        <f t="shared" si="1"/>
+        <v>files/orient-1.1.4.apk</v>
       </c>
       <c r="C48" s="1">
         <v>43665</v>
@@ -1796,22 +1802,52 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>files/permission-1.0.3.apk</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43665</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="1"/>
+        <v>files/speed-1.21.11.10.apk</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43665</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="1"/>
         <v>files/wolf-0.1.9.apk</v>
       </c>
-      <c r="C49" s="1">
-        <v>43665</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C51" s="1">
+        <v>43665</v>
+      </c>
+      <c r="D51" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
-    <sortCondition descending="1" ref="C1:C49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
+    <sortCondition descending="1" ref="C1:C51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addons/tv/tv.xlsx
+++ b/addons/tv/tv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\GitHubDesktopPortable-Kaddons\Data\kaddons.github.io\addons\tv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE67AE82-55DC-42AE-B29E-522248FFF858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CF8E3F-7178-4168-AF76-9975B35C372F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{42650763-0125-4CBD-B687-4938702E81BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>tivi-5.1.0.apk</t>
+  </si>
+  <si>
+    <t>tivi-5.0.4.apk</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A25EF-1B7A-4619-AB7A-FD7FFA861628}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1100,7 +1103,7 @@
         <v>54</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B34" si="0">"files/" &amp; A2</f>
+        <f t="shared" ref="B2:B35" si="0">"files/" &amp; A2</f>
         <v>files/shizuku-13.6.0.apk</v>
       </c>
       <c r="C2" s="1">
@@ -1190,7 +1193,7 @@
         <v>56</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B8" si="1">"files/" &amp; A8</f>
         <v>files/tivi-5.1.0.apk</v>
       </c>
       <c r="C8" s="1">
@@ -1202,11 +1205,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>files/vlc-3.6.3-arm7.apk</v>
+        <v>files/tivi-5.0.4.apk</v>
       </c>
       <c r="C9" s="1">
         <v>45904</v>
@@ -1217,41 +1220,41 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>files/rustdesk-1.4.1-arm7.apk</v>
+        <v>files/vlc-3.6.3-arm7.apk</v>
       </c>
       <c r="C10" s="1">
         <v>45904</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>files/ott-1.7.3.2.apk</v>
+        <v>files/rustdesk-1.4.1-arm7.apk</v>
       </c>
       <c r="C11" s="1">
         <v>45904</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>files/psivpn-4.1.0.apk</v>
+        <v>files/ott-1.7.3.2.apk</v>
       </c>
       <c r="C12" s="1">
         <v>45904</v>
@@ -1262,44 +1265,44 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>files/screentimeout-1.4.3.apk</v>
+        <v>files/psivpn-4.1.0.apk</v>
       </c>
       <c r="C13" s="1">
         <v>45904</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>files/fmanager-3.6.3.apk</v>
+        <v>files/screentimeout-1.4.3.apk</v>
       </c>
       <c r="C14" s="1">
-        <v>45890</v>
+        <v>45904</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>files/hdotv-2.1.3-arm7.apk</v>
+        <v>files/fmanager-3.6.3.apk</v>
       </c>
       <c r="C15" s="1">
-        <v>45886</v>
+        <v>45890</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -1307,11 +1310,11 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>files/hdotvp-1.0.9-arm7.apk</v>
+        <v>files/hdotv-2.1.3-arm7.apk</v>
       </c>
       <c r="C16" s="1">
         <v>45886</v>
@@ -1322,14 +1325,14 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>files/tvbro-1.8.6.apk</v>
+        <v>files/hdotvp-1.0.9-arm7.apk</v>
       </c>
       <c r="C17" s="1">
-        <v>45871</v>
+        <v>45886</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -1337,14 +1340,14 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>files/backgroundapp-1.3G23i.apk</v>
+        <v>files/tvbro-1.8.6.apk</v>
       </c>
       <c r="C18" s="1">
-        <v>45870</v>
+        <v>45871</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -1352,14 +1355,14 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>files/flixv-3.1.2.apk</v>
+        <v>files/backgroundapp-1.3G23i.apk</v>
       </c>
       <c r="C19" s="1">
-        <v>45862</v>
+        <v>45870</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -1367,29 +1370,29 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>files/browser-2.4.3.apk</v>
+        <v>files/flixv-3.1.2.apk</v>
       </c>
       <c r="C20" s="1">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>files/sparkletv-2.1.3.apk</v>
+        <v>files/browser-2.4.3.apk</v>
       </c>
       <c r="C21" s="1">
-        <v>45832</v>
+        <v>45855</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -1397,59 +1400,59 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>files/ontv-1.1.0.apk</v>
+        <v>files/sparkletv-2.1.3.apk</v>
       </c>
       <c r="C22" s="1">
-        <v>45817</v>
+        <v>45832</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>files/tvquickact-3.5.5.apk</v>
+        <v>files/ontv-1.1.0.apk</v>
       </c>
       <c r="C23" s="1">
-        <v>45782</v>
+        <v>45817</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>files/keyboard-6.1.31.apk</v>
+        <v>files/tvquickact-3.5.5.apk</v>
       </c>
       <c r="C24" s="1">
-        <v>45769</v>
+        <v>45782</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>files/cast-5.1.3-arm7.apk</v>
+        <v>files/keyboard-6.1.31.apk</v>
       </c>
       <c r="C25" s="1">
-        <v>45718</v>
+        <v>45769</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -1457,44 +1460,44 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>files/onenavbar-2.0.8.apk</v>
+        <v>files/cast-5.1.3-arm7.apk</v>
       </c>
       <c r="C26" s="1">
-        <v>45710</v>
+        <v>45718</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>files/kodi-21.2-arm7.apk</v>
+        <v>files/onenavbar-2.0.8.apk</v>
       </c>
       <c r="C27" s="1">
-        <v>45675</v>
+        <v>45710</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>files/downfire-1.5.1.apk</v>
+        <v>files/kodi-21.2-arm7.apk</v>
       </c>
       <c r="C28" s="1">
-        <v>45654</v>
+        <v>45675</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -1502,14 +1505,14 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>files/downand-1.5.1.apk</v>
+        <v>files/downfire-1.5.1.apk</v>
       </c>
       <c r="C29" s="1">
-        <v>45612</v>
+        <v>45654</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -1517,14 +1520,14 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>files/button-3.35.apk</v>
+        <v>files/downand-1.5.1.apk</v>
       </c>
       <c r="C30" s="1">
-        <v>45597</v>
+        <v>45612</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -1532,41 +1535,41 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>files/daydream-1.0.0.apk</v>
+        <v>files/button-3.35.apk</v>
       </c>
       <c r="C31" s="1">
-        <v>45580</v>
+        <v>45597</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>files/accessibility-1.8.apk</v>
+        <v>files/daydream-1.0.0.apk</v>
       </c>
       <c r="C32" s="1">
-        <v>43665</v>
+        <v>45580</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>files/adblang-0.80.apk</v>
+        <v>files/accessibility-1.8.apk</v>
       </c>
       <c r="C33" s="1">
         <v>43665</v>
@@ -1577,11 +1580,11 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>files/adguard-3.6.54-arm7.apk</v>
+        <v>files/adblang-0.80.apk</v>
       </c>
       <c r="C34" s="1">
         <v>43665</v>
@@ -1592,11 +1595,11 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" ref="B35:B66" si="1">"files/" &amp; A35</f>
-        <v>files/as-4.0.apk</v>
+        <f t="shared" si="0"/>
+        <v>files/adguard-3.6.54-arm7.apk</v>
       </c>
       <c r="C35" s="1">
         <v>43665</v>
@@ -1607,11 +1610,11 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="1"/>
-        <v>files/blok-5.23.2.1.apk</v>
+        <f t="shared" ref="B36:B52" si="2">"files/" &amp; A36</f>
+        <v>files/as-4.0.apk</v>
       </c>
       <c r="C36" s="1">
         <v>43665</v>
@@ -1622,11 +1625,11 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="1"/>
-        <v>files/clock-1.3.4.apk</v>
+        <f t="shared" si="2"/>
+        <v>files/blok-5.23.2.1.apk</v>
       </c>
       <c r="C37" s="1">
         <v>43665</v>
@@ -1637,11 +1640,11 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="1"/>
-        <v>files/es-3.2.5.5.apk</v>
+        <f t="shared" si="2"/>
+        <v>files/clock-1.3.4.apk</v>
       </c>
       <c r="C38" s="1">
         <v>43665</v>
@@ -1652,11 +1655,11 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="1"/>
-        <v>files/launchmand-1.0.4.apk</v>
+        <f t="shared" si="2"/>
+        <v>files/es-3.2.5.5.apk</v>
       </c>
       <c r="C39" s="1">
         <v>43665</v>
@@ -1667,11 +1670,11 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="1"/>
-        <v>files/launchmfire-1.1.5.apk</v>
+        <f t="shared" si="2"/>
+        <v>files/launchmand-1.0.4.apk</v>
       </c>
       <c r="C40" s="1">
         <v>43665</v>
@@ -1682,11 +1685,11 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="1"/>
-        <v>files/launchmfire-1.1.7.apk</v>
+        <f t="shared" si="2"/>
+        <v>files/launchmfire-1.1.5.apk</v>
       </c>
       <c r="C41" s="1">
         <v>43665</v>
@@ -1697,11 +1700,11 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="1"/>
-        <v>files/launchmfire-1.1.8.apk</v>
+        <f t="shared" si="2"/>
+        <v>files/launchmfire-1.1.7.apk</v>
       </c>
       <c r="C42" s="1">
         <v>43665</v>
@@ -1712,11 +1715,11 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="1"/>
-        <v>files/launchmini-1.0.0.apk</v>
+        <f t="shared" si="2"/>
+        <v>files/launchmfire-1.1.8.apk</v>
       </c>
       <c r="C43" s="1">
         <v>43665</v>
@@ -1727,11 +1730,11 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="1"/>
-        <v>files/launchmult-1.0.8.apk</v>
+        <f t="shared" si="2"/>
+        <v>files/launchmini-1.0.0.apk</v>
       </c>
       <c r="C44" s="1">
         <v>43665</v>
@@ -1742,11 +1745,11 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="1"/>
-        <v>files/mouse-1.0.6.apk</v>
+        <f t="shared" si="2"/>
+        <v>files/launchmult-1.0.8.apk</v>
       </c>
       <c r="C45" s="1">
         <v>43665</v>
@@ -1757,11 +1760,11 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="1"/>
-        <v>files/mouse-1.0.8.apk</v>
+        <f t="shared" si="2"/>
+        <v>files/mouse-1.0.6.apk</v>
       </c>
       <c r="C46" s="1">
         <v>43665</v>
@@ -1772,11 +1775,11 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="1"/>
-        <v>files/mouse-1.1.1.apk</v>
+        <f t="shared" si="2"/>
+        <v>files/mouse-1.0.8.apk</v>
       </c>
       <c r="C47" s="1">
         <v>43665</v>
@@ -1787,11 +1790,11 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="1"/>
-        <v>files/orient-1.1.4.apk</v>
+        <f t="shared" si="2"/>
+        <v>files/mouse-1.1.1.apk</v>
       </c>
       <c r="C48" s="1">
         <v>43665</v>
@@ -1802,11 +1805,11 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="1"/>
-        <v>files/permission-1.0.3.apk</v>
+        <f t="shared" si="2"/>
+        <v>files/orient-1.1.4.apk</v>
       </c>
       <c r="C49" s="1">
         <v>43665</v>
@@ -1817,11 +1820,11 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="1"/>
-        <v>files/speed-1.21.11.10.apk</v>
+        <f t="shared" si="2"/>
+        <v>files/permission-1.0.3.apk</v>
       </c>
       <c r="C50" s="1">
         <v>43665</v>
@@ -1832,22 +1835,37 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="2"/>
+        <v>files/speed-1.21.11.10.apk</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43665</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>44</v>
       </c>
-      <c r="B51" t="str">
-        <f t="shared" si="1"/>
+      <c r="B52" t="str">
+        <f t="shared" si="2"/>
         <v>files/wolf-0.1.9.apk</v>
       </c>
-      <c r="C51" s="1">
-        <v>43665</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C52" s="1">
+        <v>43665</v>
+      </c>
+      <c r="D52" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
-    <sortCondition descending="1" ref="C1:C51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
+    <sortCondition descending="1" ref="C1:C52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addons/tv/tv.xlsx
+++ b/addons/tv/tv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\GitHubDesktopPortable-Kaddons\Data\kaddons.github.io\addons\tv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CF8E3F-7178-4168-AF76-9975B35C372F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797F8CF0-C6B9-48A0-947C-7A298D5F720E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{42650763-0125-4CBD-B687-4938702E81BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -101,9 +101,6 @@
     <t>flixv-3.1.2.apk</t>
   </si>
   <si>
-    <t>fmanager-3.6.3.apk</t>
-  </si>
-  <si>
     <t>hdotv-2.1.3-arm7.apk</t>
   </si>
   <si>
@@ -210,6 +207,15 @@
   </si>
   <si>
     <t>tivi-5.0.4.apk</t>
+  </si>
+  <si>
+    <t>fmanager-3.6.4.apk</t>
+  </si>
+  <si>
+    <t>psivpn-4.3.9.apk</t>
+  </si>
+  <si>
+    <t>launchmfire-1.1.7-New.apk</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A25EF-1B7A-4619-AB7A-FD7FFA861628}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,14 +1106,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B35" si="0">"files/" &amp; A2</f>
-        <v>files/shizuku-13.6.0.apk</v>
+        <f>"files/" &amp; A2</f>
+        <v>files/launchmfire-1.1.7-New.apk</v>
       </c>
       <c r="C2" s="1">
-        <v>45917</v>
+        <v>45973</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1115,14 +1121,14 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>files/mouse-and-1.0.6.apk</v>
+        <f>"files/" &amp; A3</f>
+        <v>files/psivpn-4.3.9.apk</v>
       </c>
       <c r="C3" s="1">
-        <v>45915</v>
+        <v>45967</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -1130,29 +1136,29 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>files/projectivy-4.68.apk</v>
+        <f>"files/" &amp; A4</f>
+        <v>files/fmanager-3.6.4.apk</v>
       </c>
       <c r="C4" s="1">
-        <v>45905</v>
+        <v>45967</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>files/InfoHW-5.23.0.apk</v>
+        <f>"files/" &amp; A5</f>
+        <v>files/shizuku-13.6.0.apk</v>
       </c>
       <c r="C5" s="1">
-        <v>45904</v>
+        <v>45917</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1160,14 +1166,14 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>files/smart-29.37-arm7.apk</v>
+        <f>"files/" &amp; A6</f>
+        <v>files/mouse-and-1.0.6.apk</v>
       </c>
       <c r="C6" s="1">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -1175,41 +1181,41 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>files/tivi-5.2.0.apk</v>
+        <f>"files/" &amp; A7</f>
+        <v>files/projectivy-4.68.apk</v>
       </c>
       <c r="C7" s="1">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" ref="B8" si="1">"files/" &amp; A8</f>
-        <v>files/tivi-5.1.0.apk</v>
+        <f>"files/" &amp; A8</f>
+        <v>files/InfoHW-5.23.0.apk</v>
       </c>
       <c r="C8" s="1">
         <v>45904</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>files/tivi-5.0.4.apk</v>
+        <f>"files/" &amp; A9</f>
+        <v>files/smart-29.37-arm7.apk</v>
       </c>
       <c r="C9" s="1">
         <v>45904</v>
@@ -1220,11 +1226,11 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>files/vlc-3.6.3-arm7.apk</v>
+        <f>"files/" &amp; A10</f>
+        <v>files/tivi-5.2.0.apk</v>
       </c>
       <c r="C10" s="1">
         <v>45904</v>
@@ -1235,26 +1241,26 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>files/rustdesk-1.4.1-arm7.apk</v>
+        <f>"files/" &amp; A11</f>
+        <v>files/tivi-5.1.0.apk</v>
       </c>
       <c r="C11" s="1">
         <v>45904</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>files/ott-1.7.3.2.apk</v>
+        <f>"files/" &amp; A12</f>
+        <v>files/tivi-5.0.4.apk</v>
       </c>
       <c r="C12" s="1">
         <v>45904</v>
@@ -1265,11 +1271,11 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>files/psivpn-4.1.0.apk</v>
+        <f>"files/" &amp; A13</f>
+        <v>files/vlc-3.6.3-arm7.apk</v>
       </c>
       <c r="C13" s="1">
         <v>45904</v>
@@ -1280,11 +1286,11 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>files/screentimeout-1.4.3.apk</v>
+        <f>"files/" &amp; A14</f>
+        <v>files/rustdesk-1.4.1-arm7.apk</v>
       </c>
       <c r="C14" s="1">
         <v>45904</v>
@@ -1295,14 +1301,14 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>files/fmanager-3.6.3.apk</v>
+        <f>"files/" &amp; A15</f>
+        <v>files/ott-1.7.3.2.apk</v>
       </c>
       <c r="C15" s="1">
-        <v>45890</v>
+        <v>45904</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -1310,14 +1316,14 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>files/hdotv-2.1.3-arm7.apk</v>
+        <f>"files/" &amp; A16</f>
+        <v>files/psivpn-4.1.0.apk</v>
       </c>
       <c r="C16" s="1">
-        <v>45886</v>
+        <v>45904</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -1325,29 +1331,29 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>files/hdotvp-1.0.9-arm7.apk</v>
+        <f>"files/" &amp; A17</f>
+        <v>files/screentimeout-1.4.3.apk</v>
       </c>
       <c r="C17" s="1">
-        <v>45886</v>
+        <v>45904</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>files/tvbro-1.8.6.apk</v>
+        <f>"files/" &amp; A18</f>
+        <v>files/hdotv-2.1.3-arm7.apk</v>
       </c>
       <c r="C18" s="1">
-        <v>45871</v>
+        <v>45886</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -1355,14 +1361,14 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>files/backgroundapp-1.3G23i.apk</v>
+        <f>"files/" &amp; A19</f>
+        <v>files/hdotvp-1.0.9-arm7.apk</v>
       </c>
       <c r="C19" s="1">
-        <v>45870</v>
+        <v>45886</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -1370,14 +1376,14 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>files/flixv-3.1.2.apk</v>
+        <f>"files/" &amp; A20</f>
+        <v>files/tvbro-1.8.6.apk</v>
       </c>
       <c r="C20" s="1">
-        <v>45862</v>
+        <v>45871</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -1385,59 +1391,59 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>files/browser-2.4.3.apk</v>
+        <f>"files/" &amp; A21</f>
+        <v>files/backgroundapp-1.3G23i.apk</v>
       </c>
       <c r="C21" s="1">
-        <v>45855</v>
+        <v>45870</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>files/sparkletv-2.1.3.apk</v>
+        <f>"files/" &amp; A22</f>
+        <v>files/flixv-3.1.2.apk</v>
       </c>
       <c r="C22" s="1">
-        <v>45832</v>
+        <v>45862</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>files/ontv-1.1.0.apk</v>
+        <f>"files/" &amp; A23</f>
+        <v>files/browser-2.4.3.apk</v>
       </c>
       <c r="C23" s="1">
-        <v>45817</v>
+        <v>45855</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>files/tvquickact-3.5.5.apk</v>
+        <f>"files/" &amp; A24</f>
+        <v>files/sparkletv-2.1.3.apk</v>
       </c>
       <c r="C24" s="1">
-        <v>45782</v>
+        <v>45832</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -1445,14 +1451,14 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>files/keyboard-6.1.31.apk</v>
+        <f>"files/" &amp; A25</f>
+        <v>files/ontv-1.1.0.apk</v>
       </c>
       <c r="C25" s="1">
-        <v>45769</v>
+        <v>45817</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -1460,44 +1466,44 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>files/cast-5.1.3-arm7.apk</v>
+        <f>"files/" &amp; A26</f>
+        <v>files/tvquickact-3.5.5.apk</v>
       </c>
       <c r="C26" s="1">
-        <v>45718</v>
+        <v>45782</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>files/onenavbar-2.0.8.apk</v>
+        <f>"files/" &amp; A27</f>
+        <v>files/keyboard-6.1.31.apk</v>
       </c>
       <c r="C27" s="1">
-        <v>45710</v>
+        <v>45769</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>files/kodi-21.2-arm7.apk</v>
+        <f>"files/" &amp; A28</f>
+        <v>files/cast-5.1.3-arm7.apk</v>
       </c>
       <c r="C28" s="1">
-        <v>45675</v>
+        <v>45718</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -1505,29 +1511,29 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>files/downfire-1.5.1.apk</v>
+        <f>"files/" &amp; A29</f>
+        <v>files/onenavbar-2.0.8.apk</v>
       </c>
       <c r="C29" s="1">
-        <v>45654</v>
+        <v>45710</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>files/downand-1.5.1.apk</v>
+        <f>"files/" &amp; A30</f>
+        <v>files/kodi-21.2-arm7.apk</v>
       </c>
       <c r="C30" s="1">
-        <v>45612</v>
+        <v>45675</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -1535,14 +1541,14 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>files/button-3.35.apk</v>
+        <f>"files/" &amp; A31</f>
+        <v>files/downfire-1.5.1.apk</v>
       </c>
       <c r="C31" s="1">
-        <v>45597</v>
+        <v>45654</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -1550,56 +1556,56 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>files/daydream-1.0.0.apk</v>
+        <f>"files/" &amp; A32</f>
+        <v>files/downand-1.5.1.apk</v>
       </c>
       <c r="C32" s="1">
-        <v>45580</v>
+        <v>45612</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>files/accessibility-1.8.apk</v>
+        <f>"files/" &amp; A33</f>
+        <v>files/button-3.35.apk</v>
       </c>
       <c r="C33" s="1">
-        <v>43665</v>
+        <v>45597</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>files/adblang-0.80.apk</v>
+        <f>"files/" &amp; A34</f>
+        <v>files/daydream-1.0.0.apk</v>
       </c>
       <c r="C34" s="1">
-        <v>43665</v>
+        <v>45580</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>files/adguard-3.6.54-arm7.apk</v>
+        <f>"files/" &amp; A35</f>
+        <v>files/accessibility-1.8.apk</v>
       </c>
       <c r="C35" s="1">
         <v>43665</v>
@@ -1610,11 +1616,11 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" ref="B36:B52" si="2">"files/" &amp; A36</f>
-        <v>files/as-4.0.apk</v>
+        <f>"files/" &amp; A36</f>
+        <v>files/adblang-0.80.apk</v>
       </c>
       <c r="C36" s="1">
         <v>43665</v>
@@ -1625,11 +1631,11 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="2"/>
-        <v>files/blok-5.23.2.1.apk</v>
+        <f>"files/" &amp; A37</f>
+        <v>files/adguard-3.6.54-arm7.apk</v>
       </c>
       <c r="C37" s="1">
         <v>43665</v>
@@ -1640,11 +1646,11 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="2"/>
-        <v>files/clock-1.3.4.apk</v>
+        <f>"files/" &amp; A38</f>
+        <v>files/as-4.0.apk</v>
       </c>
       <c r="C38" s="1">
         <v>43665</v>
@@ -1655,11 +1661,11 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="2"/>
-        <v>files/es-3.2.5.5.apk</v>
+        <f>"files/" &amp; A39</f>
+        <v>files/blok-5.23.2.1.apk</v>
       </c>
       <c r="C39" s="1">
         <v>43665</v>
@@ -1670,11 +1676,11 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="2"/>
-        <v>files/launchmand-1.0.4.apk</v>
+        <f>"files/" &amp; A40</f>
+        <v>files/clock-1.3.4.apk</v>
       </c>
       <c r="C40" s="1">
         <v>43665</v>
@@ -1685,11 +1691,11 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="2"/>
-        <v>files/launchmfire-1.1.5.apk</v>
+        <f>"files/" &amp; A41</f>
+        <v>files/es-3.2.5.5.apk</v>
       </c>
       <c r="C41" s="1">
         <v>43665</v>
@@ -1700,11 +1706,11 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="2"/>
-        <v>files/launchmfire-1.1.7.apk</v>
+        <f>"files/" &amp; A42</f>
+        <v>files/launchmand-1.0.4.apk</v>
       </c>
       <c r="C42" s="1">
         <v>43665</v>
@@ -1715,11 +1721,11 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="2"/>
-        <v>files/launchmfire-1.1.8.apk</v>
+        <f>"files/" &amp; A43</f>
+        <v>files/launchmfire-1.1.5.apk</v>
       </c>
       <c r="C43" s="1">
         <v>43665</v>
@@ -1730,11 +1736,11 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="2"/>
-        <v>files/launchmini-1.0.0.apk</v>
+        <f>"files/" &amp; A44</f>
+        <v>files/launchmfire-1.1.7.apk</v>
       </c>
       <c r="C44" s="1">
         <v>43665</v>
@@ -1745,11 +1751,11 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="2"/>
-        <v>files/launchmult-1.0.8.apk</v>
+        <f>"files/" &amp; A45</f>
+        <v>files/launchmfire-1.1.8.apk</v>
       </c>
       <c r="C45" s="1">
         <v>43665</v>
@@ -1760,11 +1766,11 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="2"/>
-        <v>files/mouse-1.0.6.apk</v>
+        <f>"files/" &amp; A46</f>
+        <v>files/launchmini-1.0.0.apk</v>
       </c>
       <c r="C46" s="1">
         <v>43665</v>
@@ -1775,11 +1781,11 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="2"/>
-        <v>files/mouse-1.0.8.apk</v>
+        <f>"files/" &amp; A47</f>
+        <v>files/launchmult-1.0.8.apk</v>
       </c>
       <c r="C47" s="1">
         <v>43665</v>
@@ -1790,11 +1796,11 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="2"/>
-        <v>files/mouse-1.1.1.apk</v>
+        <f>"files/" &amp; A48</f>
+        <v>files/mouse-1.0.6.apk</v>
       </c>
       <c r="C48" s="1">
         <v>43665</v>
@@ -1805,11 +1811,11 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="2"/>
-        <v>files/orient-1.1.4.apk</v>
+        <f>"files/" &amp; A49</f>
+        <v>files/mouse-1.0.8.apk</v>
       </c>
       <c r="C49" s="1">
         <v>43665</v>
@@ -1820,11 +1826,11 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="2"/>
-        <v>files/permission-1.0.3.apk</v>
+        <f>"files/" &amp; A50</f>
+        <v>files/mouse-1.1.1.apk</v>
       </c>
       <c r="C50" s="1">
         <v>43665</v>
@@ -1835,11 +1841,11 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="2"/>
-        <v>files/speed-1.21.11.10.apk</v>
+        <f>"files/" &amp; A51</f>
+        <v>files/orient-1.1.4.apk</v>
       </c>
       <c r="C51" s="1">
         <v>43665</v>
@@ -1850,11 +1856,11 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="2"/>
-        <v>files/wolf-0.1.9.apk</v>
+        <f>"files/" &amp; A52</f>
+        <v>files/permission-1.0.3.apk</v>
       </c>
       <c r="C52" s="1">
         <v>43665</v>
@@ -1863,9 +1869,39 @@
         <v>6</v>
       </c>
     </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" t="str">
+        <f>"files/" &amp; A53</f>
+        <v>files/speed-1.21.11.10.apk</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43665</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="str">
+        <f>"files/" &amp; A54</f>
+        <v>files/wolf-0.1.9.apk</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43665</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
-    <sortCondition descending="1" ref="C1:C52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D54">
+    <sortCondition descending="1" ref="C27:C54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addons/tv/tv.xlsx
+++ b/addons/tv/tv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\GitHubDesktopPortable-Kaddons\Data\kaddons.github.io\addons\tv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797F8CF0-C6B9-48A0-947C-7A298D5F720E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C05A1FE-ECE5-46EC-B18F-94B4F4D8D214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{42650763-0125-4CBD-B687-4938702E81BA}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>hdotv-2.1.3-arm7.apk</t>
   </si>
   <si>
-    <t>hdotvp-1.0.9-arm7.apk</t>
-  </si>
-  <si>
     <t>InfoHW-5.23.0.apk</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>launchmfire-1.1.7-New.apk</t>
+  </si>
+  <si>
+    <t>hdotvp-1.0.10-arm7.apk</t>
   </si>
 </sst>
 </file>
@@ -1110,13 +1110,13 @@
       </c>
       <c r="B2" t="str">
         <f>"files/" &amp; A2</f>
-        <v>files/launchmfire-1.1.7-New.apk</v>
+        <v>files/hdotvp-1.0.10-arm7.apk</v>
       </c>
       <c r="C2" s="1">
-        <v>45973</v>
+        <v>45979</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,13 +1125,13 @@
       </c>
       <c r="B3" t="str">
         <f>"files/" &amp; A3</f>
-        <v>files/psivpn-4.3.9.apk</v>
+        <v>files/launchmfire-1.1.7-New.apk</v>
       </c>
       <c r="C3" s="1">
-        <v>45967</v>
+        <v>45973</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B4" t="str">
         <f>"files/" &amp; A4</f>
-        <v>files/fmanager-3.6.4.apk</v>
+        <v>files/psivpn-4.3.9.apk</v>
       </c>
       <c r="C4" s="1">
         <v>45967</v>
@@ -1151,17 +1151,17 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B5" t="str">
         <f>"files/" &amp; A5</f>
-        <v>files/shizuku-13.6.0.apk</v>
+        <v>files/fmanager-3.6.4.apk</v>
       </c>
       <c r="C5" s="1">
-        <v>45917</v>
+        <v>45967</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1170,40 +1170,40 @@
       </c>
       <c r="B6" t="str">
         <f>"files/" &amp; A6</f>
-        <v>files/mouse-and-1.0.6.apk</v>
+        <v>files/shizuku-13.6.0.apk</v>
       </c>
       <c r="C6" s="1">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="str">
         <f>"files/" &amp; A7</f>
-        <v>files/projectivy-4.68.apk</v>
+        <v>files/mouse-and-1.0.6.apk</v>
       </c>
       <c r="C7" s="1">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B8" t="str">
         <f>"files/" &amp; A8</f>
-        <v>files/InfoHW-5.23.0.apk</v>
+        <v>files/projectivy-4.68.apk</v>
       </c>
       <c r="C8" s="1">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1211,26 +1211,26 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B9" t="str">
         <f>"files/" &amp; A9</f>
-        <v>files/smart-29.37-arm7.apk</v>
+        <v>files/InfoHW-5.23.0.apk</v>
       </c>
       <c r="C9" s="1">
         <v>45904</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B10" t="str">
         <f>"files/" &amp; A10</f>
-        <v>files/tivi-5.2.0.apk</v>
+        <v>files/smart-29.37-arm7.apk</v>
       </c>
       <c r="C10" s="1">
         <v>45904</v>
@@ -1241,11 +1241,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" t="str">
         <f>"files/" &amp; A11</f>
-        <v>files/tivi-5.1.0.apk</v>
+        <v>files/tivi-5.2.0.apk</v>
       </c>
       <c r="C11" s="1">
         <v>45904</v>
@@ -1256,11 +1256,11 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" t="str">
         <f>"files/" &amp; A12</f>
-        <v>files/tivi-5.0.4.apk</v>
+        <v>files/tivi-5.1.0.apk</v>
       </c>
       <c r="C12" s="1">
         <v>45904</v>
@@ -1271,11 +1271,11 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B13" t="str">
         <f>"files/" &amp; A13</f>
-        <v>files/vlc-3.6.3-arm7.apk</v>
+        <v>files/tivi-5.0.4.apk</v>
       </c>
       <c r="C13" s="1">
         <v>45904</v>
@@ -1286,41 +1286,41 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="str">
         <f>"files/" &amp; A14</f>
-        <v>files/rustdesk-1.4.1-arm7.apk</v>
+        <v>files/vlc-3.6.3-arm7.apk</v>
       </c>
       <c r="C14" s="1">
         <v>45904</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" t="str">
         <f>"files/" &amp; A15</f>
-        <v>files/ott-1.7.3.2.apk</v>
+        <v>files/rustdesk-1.4.1-arm7.apk</v>
       </c>
       <c r="C15" s="1">
         <v>45904</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" t="str">
         <f>"files/" &amp; A16</f>
-        <v>files/psivpn-4.1.0.apk</v>
+        <v>files/ott-1.7.3.2.apk</v>
       </c>
       <c r="C16" s="1">
         <v>45904</v>
@@ -1331,41 +1331,41 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" t="str">
         <f>"files/" &amp; A17</f>
-        <v>files/screentimeout-1.4.3.apk</v>
+        <v>files/psivpn-4.1.0.apk</v>
       </c>
       <c r="C17" s="1">
         <v>45904</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B18" t="str">
         <f>"files/" &amp; A18</f>
-        <v>files/hdotv-2.1.3-arm7.apk</v>
+        <v>files/screentimeout-1.4.3.apk</v>
       </c>
       <c r="C18" s="1">
-        <v>45886</v>
+        <v>45904</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="str">
         <f>"files/" &amp; A19</f>
-        <v>files/hdotvp-1.0.9-arm7.apk</v>
+        <v>files/hdotv-2.1.3-arm7.apk</v>
       </c>
       <c r="C19" s="1">
         <v>45886</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="str">
         <f>"files/" &amp; A20</f>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="str">
         <f>"files/" &amp; A24</f>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="str">
         <f>"files/" &amp; A25</f>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" t="str">
         <f>"files/" &amp; A26</f>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="str">
         <f>"files/" &amp; A27</f>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="str">
         <f>"files/" &amp; A29</f>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" t="str">
         <f>"files/" &amp; A30</f>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="str">
         <f>"files/" &amp; A34</f>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" t="str">
         <f>"files/" &amp; A42</f>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" t="str">
         <f>"files/" &amp; A43</f>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" t="str">
         <f>"files/" &amp; A44</f>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" t="str">
         <f>"files/" &amp; A45</f>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" t="str">
         <f>"files/" &amp; A46</f>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47" t="str">
         <f>"files/" &amp; A47</f>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48" t="str">
         <f>"files/" &amp; A48</f>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" t="str">
         <f>"files/" &amp; A49</f>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" t="str">
         <f>"files/" &amp; A50</f>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51" t="str">
         <f>"files/" &amp; A51</f>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" t="str">
         <f>"files/" &amp; A52</f>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" t="str">
         <f>"files/" &amp; A53</f>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" t="str">
         <f>"files/" &amp; A54</f>
@@ -1901,7 +1901,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D54">
-    <sortCondition descending="1" ref="C27:C54"/>
+    <sortCondition descending="1" ref="C1:C54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addons/tv/tv.xlsx
+++ b/addons/tv/tv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\GitHubDesktopPortable-Kaddons\Data\kaddons.github.io\addons\tv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C05A1FE-ECE5-46EC-B18F-94B4F4D8D214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8427E36-C099-45D1-B54B-07680BF046C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{42650763-0125-4CBD-B687-4938702E81BA}"/>
   </bookViews>
@@ -152,9 +152,6 @@
     <t>permission-1.0.3.apk</t>
   </si>
   <si>
-    <t>smart-29.37-arm7.apk</t>
-  </si>
-  <si>
     <t>sparkletv-2.1.3.apk</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>hdotvp-1.0.10-arm7.apk</t>
+  </si>
+  <si>
+    <t>smart-30.55-arm7.apk</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1110,10 @@
       </c>
       <c r="B2" t="str">
         <f>"files/" &amp; A2</f>
-        <v>files/hdotvp-1.0.10-arm7.apk</v>
+        <v>files/smart-30.55-arm7.apk</v>
       </c>
       <c r="C2" s="1">
-        <v>45979</v>
+        <v>45988</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1125,13 +1125,13 @@
       </c>
       <c r="B3" t="str">
         <f>"files/" &amp; A3</f>
-        <v>files/launchmfire-1.1.7-New.apk</v>
+        <v>files/hdotvp-1.0.10-arm7.apk</v>
       </c>
       <c r="C3" s="1">
-        <v>45973</v>
+        <v>45979</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,13 +1140,13 @@
       </c>
       <c r="B4" t="str">
         <f>"files/" &amp; A4</f>
-        <v>files/psivpn-4.3.9.apk</v>
+        <v>files/launchmfire-1.1.7-New.apk</v>
       </c>
       <c r="C4" s="1">
-        <v>45967</v>
+        <v>45973</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B5" t="str">
         <f>"files/" &amp; A5</f>
-        <v>files/fmanager-3.6.4.apk</v>
+        <v>files/psivpn-4.3.9.apk</v>
       </c>
       <c r="C5" s="1">
         <v>45967</v>
@@ -1166,17 +1166,17 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B6" t="str">
         <f>"files/" &amp; A6</f>
-        <v>files/shizuku-13.6.0.apk</v>
+        <v>files/fmanager-3.6.4.apk</v>
       </c>
       <c r="C6" s="1">
-        <v>45917</v>
+        <v>45967</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,40 +1185,40 @@
       </c>
       <c r="B7" t="str">
         <f>"files/" &amp; A7</f>
-        <v>files/mouse-and-1.0.6.apk</v>
+        <v>files/shizuku-13.6.0.apk</v>
       </c>
       <c r="C7" s="1">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="str">
         <f>"files/" &amp; A8</f>
-        <v>files/projectivy-4.68.apk</v>
+        <v>files/mouse-and-1.0.6.apk</v>
       </c>
       <c r="C8" s="1">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B9" t="str">
         <f>"files/" &amp; A9</f>
-        <v>files/InfoHW-5.23.0.apk</v>
+        <v>files/projectivy-4.68.apk</v>
       </c>
       <c r="C9" s="1">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1226,22 +1226,22 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B10" t="str">
         <f>"files/" &amp; A10</f>
-        <v>files/smart-29.37-arm7.apk</v>
+        <v>files/InfoHW-5.23.0.apk</v>
       </c>
       <c r="C10" s="1">
         <v>45904</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="str">
         <f>"files/" &amp; A11</f>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="str">
         <f>"files/" &amp; A12</f>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="str">
         <f>"files/" &amp; A13</f>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="str">
         <f>"files/" &amp; A14</f>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="str">
         <f>"files/" &amp; A15</f>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" t="str">
         <f>"files/" &amp; A16</f>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="str">
         <f>"files/" &amp; A17</f>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" t="str">
         <f>"files/" &amp; A18</f>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" t="str">
         <f>"files/" &amp; A20</f>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" t="str">
         <f>"files/" &amp; A24</f>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" t="str">
         <f>"files/" &amp; A26</f>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="str">
         <f>"files/" &amp; A34</f>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" t="str">
         <f>"files/" &amp; A53</f>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" t="str">
         <f>"files/" &amp; A54</f>
